--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/64.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/64.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1475946765361577</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.934173661653693</v>
+        <v>-1.923416757343923</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3922837569532732</v>
+        <v>0.3889183461037286</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2302719887216506</v>
+        <v>-0.2304515746368323</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1358975863591428</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.947922204501735</v>
+        <v>-1.937974896858374</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3109079766064768</v>
+        <v>0.3070928709449324</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2099568795847469</v>
+        <v>-0.2114797097435647</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.132661770292085</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.018137377241625</v>
+        <v>-2.004428985716083</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2837087407209387</v>
+        <v>0.2829261549442116</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2273562726841059</v>
+        <v>-0.2295682455418326</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1384841151143254</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.081775763356017</v>
+        <v>-2.073123518369292</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2597508115972179</v>
+        <v>0.2567825338284004</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2340783340946495</v>
+        <v>-0.23573402862974</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1482644506507761</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.049031994845253</v>
+        <v>-2.037663330385393</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2459080956473125</v>
+        <v>0.2473258023435848</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2219862158057437</v>
+        <v>-0.2239076390933795</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1531440210601502</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.914852845266698</v>
+        <v>-1.908228607078245</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2630198592727624</v>
+        <v>0.2586002937015818</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.20882096217002</v>
+        <v>-0.2090808507302017</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1402446420719758</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.643394133988544</v>
+        <v>-1.634847012464364</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2611699783415811</v>
+        <v>0.25515896035131</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1842717135694811</v>
+        <v>-0.1792141069825734</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.09740958024672622</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.266847731343191</v>
+        <v>-1.257382239569829</v>
       </c>
       <c r="F9" t="n">
-        <v>0.245643826942858</v>
+        <v>0.2386823176454053</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1269998671554965</v>
+        <v>-0.1202836459373165</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.01693806869558357</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7799392136022303</v>
+        <v>-0.7666177348207793</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2703858018913968</v>
+        <v>0.2644580066423075</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02729902321970507</v>
+        <v>-0.02246480399070637</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1026855795938535</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2453323847793738</v>
+        <v>-0.2301770855957415</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1633598966835165</v>
+        <v>0.1646827002538797</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06087328099027125</v>
+        <v>0.0661674153679062</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.257162688130079</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4230455101806285</v>
+        <v>0.4262503157401731</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04176125148027638</v>
+        <v>0.04429443491800297</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1597725585241538</v>
+        <v>0.1667647288315156</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4414229980837842</v>
       </c>
       <c r="E13" t="n">
-        <v>1.108012471549536</v>
+        <v>1.114679051132625</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1231687009649521</v>
+        <v>-0.1218020959518615</v>
       </c>
       <c r="G13" t="n">
-        <v>0.291779886567482</v>
+        <v>0.2952518809276629</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6492385100579664</v>
       </c>
       <c r="E14" t="n">
-        <v>1.824801181059797</v>
+        <v>1.829032400427251</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3466553421441648</v>
+        <v>-0.3327790450881685</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4382110297008972</v>
+        <v>0.4434934836938049</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8738391656136533</v>
       </c>
       <c r="E15" t="n">
-        <v>2.530004408968699</v>
+        <v>2.528799869293699</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6181629650333645</v>
+        <v>-0.6068096310784585</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6265061317449375</v>
+        <v>0.6323507042528451</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.108949173107488</v>
       </c>
       <c r="E16" t="n">
-        <v>3.202485039064155</v>
+        <v>3.194735103797611</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9367600589505518</v>
+        <v>-0.9291240074350993</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7823589652089866</v>
+        <v>0.785534569806713</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.346264704800327</v>
       </c>
       <c r="E17" t="n">
-        <v>3.860476151905433</v>
+        <v>3.846598394801346</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.196509914563664</v>
+        <v>-1.187603621209121</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9811459728342968</v>
+        <v>0.9852910493643867</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.576277460793977</v>
       </c>
       <c r="E18" t="n">
-        <v>4.400533340251651</v>
+        <v>4.384830523033928</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.556410308924567</v>
+        <v>-1.551030031709569</v>
       </c>
       <c r="G18" t="n">
-        <v>1.180449837483789</v>
+        <v>1.183737865784515</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.786842213624563</v>
       </c>
       <c r="E19" t="n">
-        <v>4.92950292339551</v>
+        <v>4.909777673687333</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.839804183321855</v>
+        <v>-1.828804181004949</v>
       </c>
       <c r="G19" t="n">
-        <v>1.377676053699918</v>
+        <v>1.374596812276191</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.967872672440279</v>
       </c>
       <c r="E20" t="n">
-        <v>5.291645951624049</v>
+        <v>5.268790358808964</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.160269408771359</v>
+        <v>-2.151024384259726</v>
       </c>
       <c r="G20" t="n">
-        <v>1.587025049214861</v>
+        <v>1.58517516828368</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.113453628166772</v>
       </c>
       <c r="E21" t="n">
-        <v>5.60261721436242</v>
+        <v>5.57924038437888</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.476706361538048</v>
+        <v>-2.460282280563415</v>
       </c>
       <c r="G21" t="n">
-        <v>1.767470932722177</v>
+        <v>1.763295195182178</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.221053168769143</v>
       </c>
       <c r="E22" t="n">
-        <v>5.840444447890538</v>
+        <v>5.811972050069727</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.786634419915464</v>
+        <v>-2.770101565358059</v>
       </c>
       <c r="G22" t="n">
-        <v>1.894895169808142</v>
+        <v>1.891443616121234</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.292599660047482</v>
       </c>
       <c r="E23" t="n">
-        <v>5.991254275248588</v>
+        <v>5.955296210865688</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.037426150466806</v>
+        <v>-3.022470147847583</v>
       </c>
       <c r="G23" t="n">
-        <v>2.013379532433474</v>
+        <v>2.005340507644931</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.331036609815053</v>
       </c>
       <c r="E24" t="n">
-        <v>6.081495467603382</v>
+        <v>6.046600318230664</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.27135140547197</v>
+        <v>-3.255726700827111</v>
       </c>
       <c r="G24" t="n">
-        <v>2.115619399999356</v>
+        <v>2.109059403926903</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.339850253530115</v>
       </c>
       <c r="E25" t="n">
-        <v>6.095506089083742</v>
+        <v>6.056946219002843</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.446267356834969</v>
+        <v>-3.430457226082564</v>
       </c>
       <c r="G25" t="n">
-        <v>2.171993316837431</v>
+        <v>2.171658965824613</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.322096391635105</v>
       </c>
       <c r="E26" t="n">
-        <v>6.043214466707846</v>
+        <v>6.006175966737675</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.611947773998924</v>
+        <v>-3.594370255032474</v>
       </c>
       <c r="G26" t="n">
-        <v>2.19842164733097</v>
+        <v>2.197512037370334</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.280445913008246</v>
       </c>
       <c r="E27" t="n">
-        <v>5.94175426482251</v>
+        <v>5.90618019308752</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.700620144680037</v>
+        <v>-3.679145027334906</v>
       </c>
       <c r="G27" t="n">
-        <v>2.200522656533788</v>
+        <v>2.197926691028152</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.219206278154785</v>
       </c>
       <c r="E28" t="n">
-        <v>5.869173814175348</v>
+        <v>5.836197167994084</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.7676677430867</v>
+        <v>-3.74761398255807</v>
       </c>
       <c r="G28" t="n">
-        <v>2.208256531271331</v>
+        <v>2.20798204223024</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.142536485137175</v>
       </c>
       <c r="E29" t="n">
-        <v>5.672744784216856</v>
+        <v>5.642723275371591</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.806134170089781</v>
+        <v>-3.781783488029606</v>
       </c>
       <c r="G29" t="n">
-        <v>2.20619786346315</v>
+        <v>2.19880710002697</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.054050915464146</v>
       </c>
       <c r="E30" t="n">
-        <v>5.461753234599639</v>
+        <v>5.434838708091828</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.83282895935991</v>
+        <v>-3.802800150274191</v>
       </c>
       <c r="G30" t="n">
-        <v>2.160435576149798</v>
+        <v>2.154341335418346</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.955971984059595</v>
       </c>
       <c r="E31" t="n">
-        <v>5.18319357943135</v>
+        <v>5.158241357557721</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.729391852359484</v>
+        <v>-3.697829262754265</v>
       </c>
       <c r="G31" t="n">
-        <v>2.077954539398184</v>
+        <v>2.070448432162823</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.849338875151818</v>
       </c>
       <c r="E32" t="n">
-        <v>4.876653562648888</v>
+        <v>4.850200411337803</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.647611638691506</v>
+        <v>-3.615746819131469</v>
       </c>
       <c r="G32" t="n">
-        <v>1.932212538963678</v>
+        <v>1.921456364677953</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.73648880942752</v>
       </c>
       <c r="E33" t="n">
-        <v>4.595039486874417</v>
+        <v>4.569403962494243</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.511253367337269</v>
+        <v>-3.483498583153141</v>
       </c>
       <c r="G33" t="n">
-        <v>1.839925819233521</v>
+        <v>1.830064654427523</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.617989991215812</v>
       </c>
       <c r="E34" t="n">
-        <v>4.263398323313051</v>
+        <v>4.241772090990512</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.398200383610118</v>
+        <v>-3.376904852180169</v>
       </c>
       <c r="G34" t="n">
-        <v>1.714989504094463</v>
+        <v>1.709711430245829</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.494160532685883</v>
       </c>
       <c r="E35" t="n">
-        <v>3.919356971315599</v>
+        <v>3.897107298458241</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.279691200167241</v>
+        <v>-3.258976767877474</v>
       </c>
       <c r="G35" t="n">
-        <v>1.601626990172039</v>
+        <v>1.591797946424042</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.36552677402219</v>
       </c>
       <c r="E36" t="n">
-        <v>3.58391822266978</v>
+        <v>3.560313625184059</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.154538067886683</v>
+        <v>-3.130036270849099</v>
       </c>
       <c r="G36" t="n">
-        <v>1.456051435219897</v>
+        <v>1.451754513688352</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.232652492136935</v>
       </c>
       <c r="E37" t="n">
-        <v>3.233981196481237</v>
+        <v>3.218996722924242</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.014461784068948</v>
+        <v>-2.999188951013998</v>
       </c>
       <c r="G37" t="n">
-        <v>1.325184404735568</v>
+        <v>1.321188253110751</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.099077749392379</v>
       </c>
       <c r="E38" t="n">
-        <v>2.875174378140425</v>
+        <v>2.856152871612066</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.959301167194418</v>
+        <v>-2.948042736365421</v>
       </c>
       <c r="G38" t="n">
-        <v>1.179325600453789</v>
+        <v>1.175206804789336</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9667355500667554</v>
       </c>
       <c r="E39" t="n">
-        <v>2.531165147200972</v>
+        <v>2.514459276944794</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.819818392925637</v>
+        <v>-2.808613983876004</v>
       </c>
       <c r="G39" t="n">
-        <v>1.078634843912362</v>
+        <v>1.072674927605272</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8377626528017003</v>
       </c>
       <c r="E40" t="n">
-        <v>2.213890856854148</v>
+        <v>2.198699056468242</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.702862700651487</v>
+        <v>-2.693984148210671</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9584086439145757</v>
+        <v>0.953029826747668</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7141339175170418</v>
       </c>
       <c r="E41" t="n">
-        <v>1.880995511982692</v>
+        <v>1.865590544575514</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.573746997852203</v>
+        <v>-2.565905809579978</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8365209091893357</v>
+        <v>0.8310866101949735</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5975913967806761</v>
       </c>
       <c r="E42" t="n">
-        <v>1.549618617125781</v>
+        <v>1.536359920412239</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.50896539408263</v>
+        <v>-2.497432474212542</v>
       </c>
       <c r="G42" t="n">
-        <v>0.720337582355276</v>
+        <v>0.7144857096069139</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4908399332283262</v>
       </c>
       <c r="E43" t="n">
-        <v>1.284609668289215</v>
+        <v>1.269909904109947</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.428578066293378</v>
+        <v>-2.418992120552518</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6563845558772932</v>
+        <v>0.6518744673244762</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.394747132846144</v>
       </c>
       <c r="E44" t="n">
-        <v>1.016385693556469</v>
+        <v>0.9982022546322923</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.314082555052409</v>
+        <v>-2.307324722463638</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5488403335971402</v>
+        <v>0.5438002475873234</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3096545030647563</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7963082646695283</v>
+        <v>0.7735183740185344</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.269763525276921</v>
+        <v>-2.262629730304741</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4422349222394416</v>
+        <v>0.4377963760430791</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2349736521859445</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5620114274252276</v>
+        <v>0.5379556750794159</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.178826620006809</v>
+        <v>-2.169820313358039</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3752318552995505</v>
+        <v>0.3658101649689167</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1699027376903032</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3633981655227355</v>
+        <v>0.3396154421699237</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.089676813599969</v>
+        <v>-2.076429067247109</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2946123798638449</v>
+        <v>0.2859119532901199</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.113971423551394</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2442582413045856</v>
+        <v>0.2201470071313194</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.985103789184816</v>
+        <v>-1.972927718130683</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2056823106946869</v>
+        <v>0.195478034587326</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.06560450248613815</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1154148374742566</v>
+        <v>0.09265268773698999</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.886852042979251</v>
+        <v>-1.87239683685521</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1532724244234283</v>
+        <v>0.1439835984690671</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.0230193732566389</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01029721512119392</v>
+        <v>-0.01241237288479998</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.802787584073047</v>
+        <v>-1.786215308217187</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08694535974962789</v>
+        <v>0.07695571071163057</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.01550531182736731</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.08042287300741809</v>
+        <v>-0.1010241515701398</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.673284238505627</v>
+        <v>-1.656284898583177</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02934208241900699</v>
+        <v>0.01644109748773773</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.05087792886052107</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1856280982459353</v>
+        <v>-0.1970894757595686</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.553395309616841</v>
+        <v>-1.533484633801119</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.008359279384437432</v>
+        <v>-0.01637494340352619</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.08354605126296274</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3060543248321757</v>
+        <v>-0.3145693252983552</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.440510231420144</v>
+        <v>-1.42249177793024</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07596972633014655</v>
+        <v>-0.08211360869669035</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1138524208513609</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3400807455908029</v>
+        <v>-0.3481723321106189</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.368792669194709</v>
+        <v>-1.351730547204349</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1399227528081294</v>
+        <v>-0.1455147369963097</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1418401124832102</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4686920017746775</v>
+        <v>-0.474311726876585</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.324442248385266</v>
+        <v>-1.303363534096817</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1505650433427629</v>
+        <v>-0.1511914039737627</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1676926924633704</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5490866298043832</v>
+        <v>-0.5491698525455649</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.237725612121926</v>
+        <v>-1.226725609805019</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2002314992512041</v>
+        <v>-0.2024814333592944</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1914820567782315</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6496445219695379</v>
+        <v>-0.646046963473539</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.196753742594846</v>
+        <v>-1.185396028495667</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2303975528574687</v>
+        <v>-0.2288367614482873</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2133540258012289</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6727030614692591</v>
+        <v>-0.6661197046273517</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.156281209514856</v>
+        <v>-1.148535654392586</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2650138330448231</v>
+        <v>-0.2627799594657327</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2333924415433357</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7676193278111426</v>
+        <v>-0.7663228051064157</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.143082374773042</v>
+        <v>-1.133939553627772</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3174456200374454</v>
+        <v>-0.3158906688206276</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2516367836094616</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.833578460366034</v>
+        <v>-0.8338091479643976</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102555819913689</v>
+        <v>-1.097203283612418</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3514618204594362</v>
+        <v>-0.3485782254798915</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2683269883250459</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9650441105676351</v>
+        <v>-0.9606844069681817</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.094385390796964</v>
+        <v>-1.086118598506239</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3945449195259701</v>
+        <v>-0.3917095061334254</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2837025534370532</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.087107051063784</v>
+        <v>-1.080145541766331</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.094232085747419</v>
+        <v>-1.085373973979876</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4367359292089588</v>
+        <v>-0.4314841362259602</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2980465422656464</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.146279880092132</v>
+        <v>-1.141358057977679</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.13350299924859</v>
+        <v>-1.124425880267411</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4963190317508518</v>
+        <v>-0.4897152342356718</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3112452992832477</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.242667874909651</v>
+        <v>-1.236827682546017</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.162422171785219</v>
+        <v>-1.152812135250857</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5243855362023898</v>
+        <v>-0.5193366899040275</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3231402223358192</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.374437215114162</v>
+        <v>-1.360944910706074</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.123526490643411</v>
+        <v>-1.111701561155141</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5494107604805649</v>
+        <v>-0.5448130690422934</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3336212789543518</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.433656765681418</v>
+        <v>-1.420763080990604</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.202744319911844</v>
+        <v>-1.188773119729939</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6040077987920047</v>
+        <v>-0.5988684295120061</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3427956092250772</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.533034938989119</v>
+        <v>-1.522852563603122</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.293798759053274</v>
+        <v>-1.27925083987546</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6485743067189019</v>
+        <v>-0.6464732975160843</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3507336612808615</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.55729801816384</v>
+        <v>-1.554500566021659</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.363808065012346</v>
+        <v>-1.348023485101532</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6721584635313501</v>
+        <v>-0.6693245101868963</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.357712426570814</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.622756354223549</v>
+        <v>-1.622575308260277</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.446246760369324</v>
+        <v>-1.429961383963329</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6667752662201697</v>
+        <v>-0.667506750313715</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.363601797685346</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.677490637055535</v>
+        <v>-1.679639827845352</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.520966181469668</v>
+        <v>-1.507370213647126</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6920165776157993</v>
+        <v>-0.690917161403345</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3684840062486865</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.711452815698162</v>
+        <v>-1.709083157646617</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.632313829026638</v>
+        <v>-1.61861273774155</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7337432920058791</v>
+        <v>-0.7290141962394258</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3727103385500631</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.691069084300986</v>
+        <v>-1.690648590450804</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.726840262528249</v>
+        <v>-1.709210181830526</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.755556410484055</v>
+        <v>-0.7521705589612377</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3765839286326209</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.680035500877989</v>
+        <v>-1.677259949457171</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.778794613795144</v>
+        <v>-1.763785319420602</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7764949601557767</v>
+        <v>-0.7768643523227765</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3800541049000974</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.631118049640184</v>
+        <v>-1.627114597774912</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.850028170078443</v>
+        <v>-1.839055908675264</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7744479727323226</v>
+        <v>-0.7712563076055963</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3823649719237757</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.542786600188298</v>
+        <v>-1.539028436402299</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.951776001437688</v>
+        <v>-1.944148710210781</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7773198873271401</v>
+        <v>-0.7761693694315039</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3827162636529792</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.424727111557421</v>
+        <v>-1.422707865047694</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.00421435864672</v>
+        <v>-1.999993359615903</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7639896482571437</v>
+        <v>-0.7643225392218708</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3800468697615965</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.288611208186276</v>
+        <v>-1.290389546761002</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.055799317746615</v>
+        <v>-2.050062788797435</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7507382517840563</v>
+        <v>-0.7519734524689651</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3735372454355532</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.104740051857688</v>
+        <v>-1.114139841466959</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.081562596334744</v>
+        <v>-2.08047121038679</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7245143280232451</v>
+        <v>-0.727378942377608</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3624369255654369</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9421374160693685</v>
+        <v>-0.9581059620396369</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.078673161162836</v>
+        <v>-2.076848831073246</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6693668515815326</v>
+        <v>-0.6716518268438048</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3461241594744515</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.7000599825486153</v>
+        <v>-0.7143509332624297</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.1124448035296</v>
+        <v>-2.115458342789235</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6114949254021845</v>
+        <v>-0.6090464247537307</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3247684970678009</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4429805548937752</v>
+        <v>-0.4562713726653171</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.114301984701235</v>
+        <v>-2.119304109460689</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5173305838271189</v>
+        <v>-0.5156559086668466</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.298742883338261</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1549378873750344</v>
+        <v>-0.1610686293087601</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.10035487531283</v>
+        <v>-2.102814326321966</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4489317109123191</v>
+        <v>-0.4457911474687745</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2687186771046149</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1442610076063398</v>
+        <v>0.1429528045168856</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.036255844025757</v>
+        <v>-2.030319288488122</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3349895578978043</v>
+        <v>-0.3295494187110785</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2356561012440011</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4875475147407931</v>
+        <v>0.4920386226684282</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.978862083596181</v>
+        <v>-1.97126910349941</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2542065570759169</v>
+        <v>-0.2498497735726453</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.200740306499091</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7921164666005295</v>
+        <v>0.8039968779162535</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.9070875794952</v>
+        <v>-1.898519287273703</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1804288669942094</v>
+        <v>-0.1747375995358473</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1655706558368792</v>
       </c>
       <c r="E86" t="n">
-        <v>1.107876687077081</v>
+        <v>1.118226967993533</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.857983242101759</v>
+        <v>-1.846017417972717</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1057736880098658</v>
+        <v>-0.1047341337691388</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1316463041925229</v>
       </c>
       <c r="E87" t="n">
-        <v>1.353669942989197</v>
+        <v>1.359993411270922</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.685123768474805</v>
+        <v>-1.665633586509265</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05944344198915099</v>
+        <v>-0.0579176917341514</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1003768786133745</v>
       </c>
       <c r="E88" t="n">
-        <v>1.577127383206591</v>
+        <v>1.584272858563499</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.504977194826127</v>
+        <v>-1.481581384217405</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01002710622437581</v>
+        <v>0.009841680116830408</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.07297237039079638</v>
       </c>
       <c r="E89" t="n">
-        <v>1.763934696245996</v>
+        <v>1.77718171257481</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.274717390553188</v>
+        <v>-1.242145177693106</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06558339613154271</v>
+        <v>0.0669908824911787</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.05070521779259729</v>
       </c>
       <c r="E90" t="n">
-        <v>1.945389472984129</v>
+        <v>1.961020747845397</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.04636878923125</v>
+        <v>-1.008985717911623</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09808260658707944</v>
+        <v>0.09801544437489763</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.03510544771031242</v>
       </c>
       <c r="E91" t="n">
-        <v>2.128489723920716</v>
+        <v>2.147146218426347</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8224543539614007</v>
+        <v>-0.7820285424203206</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0813752762828112</v>
+        <v>0.08204105821226557</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.02747286039876913</v>
       </c>
       <c r="E92" t="n">
-        <v>2.245427895617776</v>
+        <v>2.258926040218226</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6222306590146363</v>
+        <v>-0.5804543029894657</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09296659807653536</v>
+        <v>0.09015162535726338</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.02919243082094634</v>
       </c>
       <c r="E93" t="n">
-        <v>2.348863542570111</v>
+        <v>2.364731345222107</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3739407208670665</v>
+        <v>-0.3305977332403509</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0440973284257303</v>
+        <v>0.03951423746836789</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.04002183213235698</v>
       </c>
       <c r="E94" t="n">
-        <v>2.36910564930247</v>
+        <v>2.381018181676194</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2319671045551956</v>
+        <v>-0.1885043929850254</v>
       </c>
       <c r="G94" t="n">
-        <v>0.008812346212739776</v>
+        <v>0.004832255116922662</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.05893794467216673</v>
       </c>
       <c r="E95" t="n">
-        <v>2.324892473013572</v>
+        <v>2.331564892789025</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.06698459037869442</v>
+        <v>-0.02882039333043194</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0279750254857958</v>
+        <v>-0.03095206354315864</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08374696598306949</v>
       </c>
       <c r="E96" t="n">
-        <v>2.226695478611417</v>
+        <v>2.22980246094887</v>
       </c>
       <c r="F96" t="n">
-        <v>0.05298610120318246</v>
+        <v>0.09266728821789907</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06941265035387559</v>
+        <v>-0.07501047473441953</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1120914037345174</v>
       </c>
       <c r="E97" t="n">
-        <v>2.078100544207275</v>
+        <v>2.086082627120273</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1256366341587084</v>
+        <v>0.157513864127518</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1245017248719517</v>
+        <v>-0.1306514474308591</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1421017832195644</v>
       </c>
       <c r="E98" t="n">
-        <v>1.885247172023418</v>
+        <v>1.891810088192052</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1923622919613268</v>
+        <v>0.2183438477390471</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1398935518463112</v>
+        <v>-0.14104844988622</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1724534754179102</v>
       </c>
       <c r="E99" t="n">
-        <v>1.688172800808743</v>
+        <v>1.694707976063651</v>
       </c>
       <c r="F99" t="n">
-        <v>0.202897998985324</v>
+        <v>0.2235416189426821</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1341993642917673</v>
+        <v>-0.1332109117342221</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2026420037205063</v>
       </c>
       <c r="E100" t="n">
-        <v>1.529077200534786</v>
+        <v>1.541624853828055</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2275465308560447</v>
+        <v>0.2440027328886766</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1297710384320412</v>
+        <v>-0.131677861238768</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2307019706348129</v>
       </c>
       <c r="E101" t="n">
-        <v>1.385609955025916</v>
+        <v>1.400893738441548</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2196111694819559</v>
+        <v>0.2302111186219531</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1107247110861372</v>
+        <v>-0.1102589557451373</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2558397415708245</v>
       </c>
       <c r="E102" t="n">
-        <v>1.202982759670783</v>
+        <v>1.227923301159685</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2342715123627701</v>
+        <v>0.2424653022489498</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1425347788427651</v>
+        <v>-0.1420135416743106</v>
       </c>
     </row>
   </sheetData>
